--- a/exported_data.xlsx
+++ b/exported_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,17 +526,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Михайлов</t>
+          <t>михайлов</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Оренбург</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -544,16 +544,74 @@
           <t>52</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIloWXy2S9NYO1pAjglbAiwZErBzwP-AAKu3TEbf5SRSxwdMxYj1NeNAQADAgADeAADNAQ/pic</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>AgACAgIAAxkBAAIjiGXh8ikuMux698PQoZkiGzVUcdEfAAJc1jEbk-0RS3kx_4VfOC-gAQADAgADeQADNAQ/pic</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>AgACAgIAAxkBAAIlo2Xy2TM-9bSQJyaGVGMKA8Ta4nc_AAKv3TEbf5SRS20jDejLER_VAQADAgADeAADNAQ/pic</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>AgACAgIAAxkBAAIlpWXy2Tc0xUnt-FY6MDk-IhrOnG57AAKv3TEbf5SRS20jDejLER_VAQADAgADeAADNAQ/pic</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Длина изделия: 5</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>848966636</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>+79140043418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fkjd</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dfs</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exported_data.xlsx
+++ b/exported_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,17 +521,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>михайлов</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,77 +541,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIloWXy2S9NYO1pAjglbAiwZErBzwP-AAKu3TEbf5SRSxwdMxYj1NeNAQADAgADeAADNAQ/pic</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIlo2Xy2TM-9bSQJyaGVGMKA8Ta4nc_AAKv3TEbf5SRS20jDejLER_VAQADAgADeAADNAQ/pic</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIlpWXy2Tc0xUnt-FY6MDk-IhrOnG57AAKv3TEbf5SRS20jDejLER_VAQADAgADeAADNAQ/pic</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Длина изделия: 5</t>
-        </is>
-      </c>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>848966636</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+79140043418</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>fkjd</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>dfs</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/exported_data.xlsx
+++ b/exported_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>last_name</t>
+          <t>height</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -507,11 +507,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>770833127</v>
+        <v>848966636</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+79643702529</t>
+          <t>+79140043418</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Макс</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>михайлов</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,77 +541,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIloWXy2S9NYO1pAjglbAiwZErBzwP-AAKu3TEbf5SRSxwdMxYj1NeNAQADAgADeAADNAQ/pic</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIlo2Xy2TM-9bSQJyaGVGMKA8Ta4nc_AAKv3TEbf5SRS20jDejLER_VAQADAgADeAADNAQ/pic</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>AgACAgIAAxkBAAIlpWXy2Tc0xUnt-FY6MDk-IhrOnG57AAKv3TEbf5SRS20jDejLER_VAQADAgADeAADNAQ/pic</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Длина изделия: 5</t>
-        </is>
-      </c>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>848966636</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+79140043418</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>fkjd</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>dfs</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
